--- a/Gjeldende analyser/Analyser_p.verdi.xlsx
+++ b/Gjeldende analyser/Analyser_p.verdi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Gjeldende analyser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF61AB-3FB6-F046-94D6-FCE6DF74639E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BACC32E-46E6-7E4C-B7BF-FB4DC7B88FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CFF79CF6-E2E2-AD4F-8873-64FBE2FFBBC1}"/>
+    <workbookView xWindow="-35260" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CFF79CF6-E2E2-AD4F-8873-64FBE2FFBBC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>vat.itt.p</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>ppm</t>
+  </si>
+  <si>
+    <t>es.itt</t>
+  </si>
+  <si>
+    <t>es.pp</t>
+  </si>
+  <si>
+    <t>es.ppm</t>
   </si>
 </sst>
 </file>
@@ -480,15 +489,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B0E86A-64A0-A148-8295-824F29030311}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -502,79 +511,115 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.32400000000000001</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0.36</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.58499999999999996</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>3.5299999999999998E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.42899999999999999</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.504</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>0.42249999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.46400000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -582,7 +627,7 @@
         <v>4.5170000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>10</v>
       </c>
@@ -590,84 +635,120 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
         <v>0.1772</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.28110000000000002</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.94399999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
         <v>0.82299999999999995</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.65190000000000003</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.90200000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9">
         <v>0.40300000000000002</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.39100000000000001</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.25900000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>0.88329999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10">
         <v>0.68600000000000005</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>1.477E-2</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.44900000000000001</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.54200000000000004</v>
+      </c>
+      <c r="K10">
+        <v>0.38696000000000003</v>
       </c>
     </row>
   </sheetData>
